--- a/data/json.xlsx
+++ b/data/json.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/damp/develop/json sample/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE69CAAD-626C-D049-B1BD-3538FAD2DEB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85AC6DB-3FCD-D946-AEB9-F25BA040B427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="27280" xr2:uid="{ADCC2C99-AB1B-C244-A7FE-38AC2364508A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -74,8 +75,8 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>概要2</t>
-    <rPh sb="1" eb="2">
+    <t>概要1</t>
+    <rPh sb="0" eb="2">
       <t xml:space="preserve">ガイヨウ </t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -463,12 +464,13 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -510,4 +512,17 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2C2928-1042-CB48-93DD-E94A34D6BF3D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/json.xlsx
+++ b/data/json.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/damp/develop/json sample/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85AC6DB-3FCD-D946-AEB9-F25BA040B427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89826BB-0C1B-E746-A22C-4C420029B20F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="27280" xr2:uid="{ADCC2C99-AB1B-C244-A7FE-38AC2364508A}"/>
   </bookViews>
@@ -75,8 +75,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>概要1</t>
+    <t>概要1,概要2</t>
     <rPh sb="0" eb="2">
+      <t xml:space="preserve">ガイヨウ </t>
+    </rPh>
+    <rPh sb="4" eb="6">
       <t xml:space="preserve">ガイヨウ </t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -464,7 +467,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>

--- a/data/json.xlsx
+++ b/data/json.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/damp/develop/json sample/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89826BB-0C1B-E746-A22C-4C420029B20F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69954082-76E8-B045-9043-C399784E3A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="27280" xr2:uid="{ADCC2C99-AB1B-C244-A7FE-38AC2364508A}"/>
+    <workbookView xWindow="-20" yWindow="14260" windowWidth="51200" windowHeight="14660" xr2:uid="{ADCC2C99-AB1B-C244-A7FE-38AC2364508A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>image</t>
     <phoneticPr fontId="1"/>
@@ -56,32 +55,35 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>./img/image.jpg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>altテキスト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タグ名</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カテゴリ名</t>
-    <rPh sb="4" eb="5">
-      <t xml:space="preserve">メイ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>概要1,概要2</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">ガイヨウ </t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t xml:space="preserve">ガイヨウ </t>
-    </rPh>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>john</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>paul</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>george</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>facilities</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>test2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>test3</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -114,27 +116,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -143,11 +130,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -464,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA7EAE53-8A8E-0E40-8730-87E4C8EFB035}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -476,56 +466,123 @@
     <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="1">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C3" s="1">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1">
+        <v>22</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="C4" s="1">
+        <v>31</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2C2928-1042-CB48-93DD-E94A34D6BF3D}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>